--- a/data/news/교육.xlsx
+++ b/data/news/교육.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csp47\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960E2732-8DD2-4253-9EB0-49A6A2B5E53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -78,12 +87,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.moe.go.kr/boardCnts/view.do?boardID=294&amp;boardSeq=79572&amp;lev=0&amp;searchType=null&amp;statusYN=W&amp;page=16&amp;s=moe&amp;m=020402&amp;opType=N</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>N</t>
     </r>
   </si>
@@ -623,12 +640,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.donga.com/news/article/all/20200527/101242689/2</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 1단계 등교수업(5.27.) 현황 자료:  https://www.moe.go.kr/boardCnts/view.do?boardID=294&amp;boardSeq=80734&amp;lev=0&amp;searchType=null&amp;statusYN=W&amp;page=2&amp;s=moe&amp;m=020402&amp;opType=N</t>
     </r>
@@ -911,180 +936,240 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m월 d일"/>
-    <numFmt numFmtId="165" formatCode="m월d일"/>
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="m&quot;월&quot;d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Notokr"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="-apple-system"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF252525"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="휴먼명조"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="휴먼명조"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3C3E40"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF231F20"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF0000FF"/>
       <name val="HY헤드라인M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1106,13 +1191,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1126,27 +1229,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1156,333 +1266,189 @@
       <bottom style="thin">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="105">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1672,24 +1638,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="41.71"/>
-    <col customWidth="1" min="4" max="4" width="33.57"/>
+    <col min="3" max="3" width="41.7265625" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,9 +1715,9 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="6">
-        <v>43857.0</v>
+        <v>43857</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
@@ -1789,9 +1760,9 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="6">
-        <v>43858.0</v>
+        <v>43858</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>12</v>
@@ -1834,9 +1805,9 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1">
       <c r="A4" s="6">
-        <v>43859.0</v>
+        <v>43859</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
@@ -1879,9 +1850,9 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="6">
-        <v>43860.0</v>
+        <v>43860</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>12</v>
@@ -1924,9 +1895,9 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1">
       <c r="A6" s="6">
-        <v>43860.0</v>
+        <v>43860</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>12</v>
@@ -1969,9 +1940,9 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1">
       <c r="A7" s="6">
-        <v>43861.0</v>
+        <v>43861</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>12</v>
@@ -2014,9 +1985,9 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1">
       <c r="A8" s="6">
-        <v>43861.0</v>
+        <v>43861</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>12</v>
@@ -2059,9 +2030,9 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1">
       <c r="A9" s="6">
-        <v>43866.0</v>
+        <v>43866</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>38</v>
@@ -2106,9 +2077,9 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1">
       <c r="A10" s="6">
-        <v>43866.0</v>
+        <v>43866</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
@@ -2151,9 +2122,9 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1">
       <c r="A11" s="6">
-        <v>43871.0</v>
+        <v>43871</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>46</v>
@@ -2196,9 +2167,9 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1">
       <c r="A12" s="6">
-        <v>43874.0</v>
+        <v>43874</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>46</v>
@@ -2239,9 +2210,9 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1">
       <c r="A13" s="18">
-        <v>43880.0</v>
+        <v>43880</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>53</v>
@@ -2284,9 +2255,9 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1">
       <c r="A14" s="6">
-        <v>43881.0</v>
+        <v>43881</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>53</v>
@@ -2327,9 +2298,9 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1">
       <c r="A15" s="6">
-        <v>43882.0</v>
+        <v>43882</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>53</v>
@@ -2372,9 +2343,9 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1">
       <c r="A16" s="20">
-        <v>43884.0</v>
+        <v>43884</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>64</v>
@@ -2417,9 +2388,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1">
       <c r="A17" s="6">
-        <v>43885.0</v>
+        <v>43885</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
@@ -2462,9 +2433,9 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:29" ht="15.75" customHeight="1">
       <c r="A18" s="6">
-        <v>43891.0</v>
+        <v>43891</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>72</v>
@@ -2507,9 +2478,9 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1">
       <c r="A19" s="6">
-        <v>43891.0</v>
+        <v>43891</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>72</v>
@@ -2552,9 +2523,9 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1">
       <c r="A20" s="6">
-        <v>43892.0</v>
+        <v>43892</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>72</v>
@@ -2597,9 +2568,9 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:29" ht="12.5">
       <c r="A21" s="6">
-        <v>43893.0</v>
+        <v>43893</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>72</v>
@@ -2642,9 +2613,9 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:29" ht="12.5">
       <c r="A22" s="18">
-        <v>43895.0</v>
+        <v>43895</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>72</v>
@@ -2691,9 +2662,9 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:29" ht="12.5">
       <c r="A23" s="6">
-        <v>43901.0</v>
+        <v>43901</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>90</v>
@@ -2736,9 +2707,9 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:29" ht="12.5">
       <c r="A24" s="18">
-        <v>43901.0</v>
+        <v>43901</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>90</v>
@@ -2785,9 +2756,9 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:29" ht="12.5">
       <c r="A25" s="6">
-        <v>43906.0</v>
+        <v>43906</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>98</v>
@@ -2830,9 +2801,9 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:29" ht="12.5">
       <c r="A26" s="18">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>98</v>
@@ -2877,9 +2848,9 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:29" ht="12.5">
       <c r="A27" s="6">
-        <v>43908.0</v>
+        <v>43908</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>98</v>
@@ -2922,9 +2893,9 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:29" ht="12.5">
       <c r="A28" s="33">
-        <v>43921.0</v>
+        <v>43921</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>108</v>
@@ -2967,9 +2938,9 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:29" ht="12.5">
       <c r="A29" s="35">
-        <v>43922.0</v>
+        <v>43922</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>108</v>
@@ -3012,9 +2983,9 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:29" ht="12.5">
       <c r="A30" s="33">
-        <v>43922.0</v>
+        <v>43922</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>108</v>
@@ -3057,9 +3028,9 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:29" ht="12.5">
       <c r="A31" s="6">
-        <v>43928.0</v>
+        <v>43928</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>119</v>
@@ -3102,9 +3073,9 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:29" ht="12.5">
       <c r="A32" s="18">
-        <v>43930.0</v>
+        <v>43930</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>119</v>
@@ -3149,9 +3120,9 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:29" ht="12.5">
       <c r="A33" s="18">
-        <v>43934.0</v>
+        <v>43934</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>127</v>
@@ -3194,9 +3165,9 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:29" ht="12.5">
       <c r="A34" s="6">
-        <v>43934.0</v>
+        <v>43934</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>127</v>
@@ -3239,9 +3210,9 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:29" ht="12.5">
       <c r="A35" s="18">
-        <v>43937.0</v>
+        <v>43937</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>127</v>
@@ -3286,9 +3257,9 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:29" ht="12.5">
       <c r="A36" s="18">
-        <v>43939.0</v>
+        <v>43939</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>127</v>
@@ -3331,9 +3302,9 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:29" ht="12.5">
       <c r="A37" s="6">
-        <v>43941.0</v>
+        <v>43941</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>142</v>
@@ -3374,9 +3345,9 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:29" ht="12.5">
       <c r="A38" s="6">
-        <v>43950.0</v>
+        <v>43950</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>146</v>
@@ -3417,9 +3388,9 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:29" ht="12.5">
       <c r="A39" s="18">
-        <v>43955.0</v>
+        <v>43955</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>151</v>
@@ -3466,9 +3437,9 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:29" ht="12.5">
       <c r="A40" s="18">
-        <v>43958.0</v>
+        <v>43958</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>151</v>
@@ -3513,9 +3484,9 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:29" ht="12.5">
       <c r="A41" s="18">
-        <v>43962.0</v>
+        <v>43962</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>158</v>
@@ -3560,9 +3531,9 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:29" ht="12.5">
       <c r="A42" s="6">
-        <v>43965.0</v>
+        <v>43965</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>158</v>
@@ -3605,9 +3576,9 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:29" ht="13">
       <c r="A43" s="6">
-        <v>43971.0</v>
+        <v>43971</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>167</v>
@@ -3650,99 +3621,99 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44">
-      <c r="A44" s="50">
-        <v>43971.0</v>
-      </c>
-      <c r="B44" s="51" t="s">
+    <row r="44" spans="1:29" s="101" customFormat="1" ht="13">
+      <c r="A44" s="96">
+        <v>43971</v>
+      </c>
+      <c r="B44" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="56"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="51"/>
-      <c r="AC44" s="51"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="50">
-        <v>43971.0</v>
-      </c>
-      <c r="B45" s="51" t="s">
+      <c r="H44" s="100"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+    </row>
+    <row r="45" spans="1:29" s="101" customFormat="1" ht="13">
+      <c r="A45" s="96">
+        <v>43971</v>
+      </c>
+      <c r="B45" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="51"/>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="51"/>
-      <c r="AC45" s="51"/>
-    </row>
-    <row r="46">
+      <c r="H45" s="100"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+    </row>
+    <row r="46" spans="1:29" ht="12.5">
       <c r="A46" s="18">
-        <v>43971.0</v>
+        <v>43971</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>167</v>
@@ -3756,7 +3727,7 @@
       <c r="E46" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="50" t="s">
         <v>177</v>
       </c>
       <c r="G46" s="5"/>
@@ -3785,14 +3756,14 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:29" ht="12.5">
       <c r="A47" s="18">
-        <v>43971.0</v>
+        <v>43971</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="51" t="s">
         <v>178</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3801,11 +3772,11 @@
       <c r="E47" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62" t="s">
+      <c r="G47" s="53"/>
+      <c r="H47" s="54" t="s">
         <v>17</v>
       </c>
       <c r="I47" s="2"/>
@@ -3830,9 +3801,9 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:29" ht="12.5">
       <c r="A48" s="18">
-        <v>43971.0</v>
+        <v>43971</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>167</v>
@@ -3840,13 +3811,13 @@
       <c r="C48" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="55" t="s">
         <v>182</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="52" t="s">
         <v>183</v>
       </c>
       <c r="G48" s="2"/>
@@ -3875,14 +3846,14 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:29" ht="12.5">
       <c r="A49" s="18">
-        <v>43973.0</v>
+        <v>43973</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="56" t="s">
         <v>184</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3920,9 +3891,9 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:29" ht="12.5">
       <c r="A50" s="6">
-        <v>43975.0</v>
+        <v>43975</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>167</v>
@@ -3967,20 +3938,20 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51">
-      <c r="A51" s="65">
-        <v>43977.0</v>
-      </c>
-      <c r="B51" s="66" t="s">
+    <row r="51" spans="1:29" ht="12.5">
+      <c r="A51" s="57">
+        <v>43977</v>
+      </c>
+      <c r="B51" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="58" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="14" t="s">
@@ -3990,20 +3961,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="65">
-        <v>43978.0</v>
-      </c>
-      <c r="B52" s="66" t="s">
+    <row r="52" spans="1:29" ht="12.5">
+      <c r="A52" s="57">
+        <v>43978</v>
+      </c>
+      <c r="B52" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="67" t="s">
+      <c r="D52" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="58" t="s">
         <v>15</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -4013,20 +3984,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="65">
-        <v>43978.0</v>
-      </c>
-      <c r="B53" s="66" t="s">
+    <row r="53" spans="1:29" ht="12.5">
+      <c r="A53" s="57">
+        <v>43978</v>
+      </c>
+      <c r="B53" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="61" t="s">
         <v>196</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="58" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -4038,901 +4009,903 @@
       <c r="H53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="65">
-        <v>43980.0</v>
-      </c>
-      <c r="B54" s="66" t="s">
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+    </row>
+    <row r="54" spans="1:29" ht="12.5">
+      <c r="A54" s="57">
+        <v>43980</v>
+      </c>
+      <c r="B54" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="66" t="s">
+      <c r="E54" s="58" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G54" s="70"/>
+      <c r="G54" s="62"/>
       <c r="H54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="73">
-        <v>43980.0</v>
-      </c>
-      <c r="B55" s="74" t="s">
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+    </row>
+    <row r="55" spans="1:29" ht="12.5">
+      <c r="A55" s="65">
+        <v>43980</v>
+      </c>
+      <c r="B55" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="76" t="s">
+      <c r="D55" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="E55" s="74" t="s">
+      <c r="E55" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="77" t="s">
+      <c r="F55" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="G55" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="79"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="73">
-        <v>43980.0</v>
-      </c>
-      <c r="B56" s="74" t="s">
+      <c r="G55" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="71"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+    </row>
+    <row r="56" spans="1:29" ht="12.5">
+      <c r="A56" s="65">
+        <v>43980</v>
+      </c>
+      <c r="B56" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="74" t="s">
+      <c r="D56" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="74" t="s">
+      <c r="E56" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="74" t="s">
+      <c r="F56" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="79"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="65">
-        <v>43982.0</v>
-      </c>
-      <c r="B57" s="74" t="s">
+      <c r="G56" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="71"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+    </row>
+    <row r="57" spans="1:29" ht="12.5">
+      <c r="A57" s="57">
+        <v>43982</v>
+      </c>
+      <c r="B57" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="74" t="s">
+      <c r="D57" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="74" t="s">
+      <c r="E57" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="77" t="s">
+      <c r="F57" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="80"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="65">
-        <v>43983.0</v>
-      </c>
-      <c r="B58" s="66" t="s">
+      <c r="G57" s="62"/>
+      <c r="H57" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="72"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+    </row>
+    <row r="58" spans="1:29" ht="12.5">
+      <c r="A58" s="57">
+        <v>43983</v>
+      </c>
+      <c r="B58" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="66" t="s">
+      <c r="D58" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="58" t="s">
         <v>44</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="G58" s="70"/>
-      <c r="H58" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="80"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="73">
-        <v>43984.0</v>
-      </c>
-      <c r="B59" s="74" t="s">
+      <c r="G58" s="62"/>
+      <c r="H58" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="72"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+    </row>
+    <row r="59" spans="1:29" ht="13">
+      <c r="A59" s="65">
+        <v>43984</v>
+      </c>
+      <c r="B59" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D59" s="74" t="s">
+      <c r="D59" s="66" t="s">
         <v>217</v>
       </c>
       <c r="E59" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="77" t="s">
+      <c r="F59" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="70"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="81">
-        <v>43984.0</v>
-      </c>
-      <c r="B60" s="74" t="s">
+      <c r="G59" s="70"/>
+      <c r="H59" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="62"/>
+    </row>
+    <row r="60" spans="1:29" ht="12.5">
+      <c r="A60" s="73">
+        <v>43984</v>
+      </c>
+      <c r="B60" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="D60" s="83" t="s">
+      <c r="D60" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="E60" s="74"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G60" s="79"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="70"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="73">
-        <v>43985.0</v>
-      </c>
-      <c r="B61" s="74" t="s">
+      <c r="G60" s="71"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="62"/>
+    </row>
+    <row r="61" spans="1:29" ht="12.5">
+      <c r="A61" s="65">
+        <v>43985</v>
+      </c>
+      <c r="B61" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="84" t="s">
+      <c r="C61" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="66" t="s">
+      <c r="D61" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="E61" s="74" t="s">
+      <c r="E61" s="66" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="G61" s="79"/>
-      <c r="H61" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="70"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="81">
-        <v>43985.0</v>
-      </c>
-      <c r="B62" s="74" t="s">
+      <c r="G61" s="71"/>
+      <c r="H61" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="62"/>
+    </row>
+    <row r="62" spans="1:29" ht="13">
+      <c r="A62" s="73">
+        <v>43985</v>
+      </c>
+      <c r="B62" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D62" s="86" t="s">
+      <c r="D62" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="E62" s="74"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G62" s="79"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="70"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="73">
-        <v>43990.0</v>
-      </c>
-      <c r="B63" s="74" t="s">
+      <c r="G62" s="71"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="62"/>
+    </row>
+    <row r="63" spans="1:29" ht="13">
+      <c r="A63" s="65">
+        <v>43990</v>
+      </c>
+      <c r="B63" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="84" t="s">
+      <c r="C63" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="D63" s="87" t="s">
+      <c r="D63" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="E63" s="74" t="s">
+      <c r="E63" s="66" t="s">
         <v>15</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="G63" s="79"/>
-      <c r="H63" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="70"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="73">
-        <v>43991.0</v>
-      </c>
-      <c r="B64" s="74" t="s">
+      <c r="G63" s="71"/>
+      <c r="H63" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="62"/>
+    </row>
+    <row r="64" spans="1:29" ht="13">
+      <c r="A64" s="65">
+        <v>43991</v>
+      </c>
+      <c r="B64" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="74" t="s">
+      <c r="D64" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="66" t="s">
         <v>234</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="G64" s="79"/>
-      <c r="H64" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="70"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="88">
-        <v>43993.0</v>
-      </c>
-      <c r="B65" s="74" t="s">
+      <c r="G64" s="71"/>
+      <c r="H64" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="62"/>
+    </row>
+    <row r="65" spans="1:12" ht="13">
+      <c r="A65" s="80">
+        <v>43993</v>
+      </c>
+      <c r="B65" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="89" t="s">
+      <c r="C65" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="D65" s="74" t="s">
+      <c r="D65" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="E65" s="74" t="s">
+      <c r="E65" s="66" t="s">
         <v>238</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G65" s="79"/>
-      <c r="H65" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="70"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="90">
-        <v>43998.0</v>
-      </c>
-      <c r="B66" s="74" t="s">
+      <c r="G65" s="71"/>
+      <c r="H65" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="62"/>
+    </row>
+    <row r="66" spans="1:12" ht="13">
+      <c r="A66" s="82">
+        <v>43998</v>
+      </c>
+      <c r="B66" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="C66" s="91" t="s">
+      <c r="C66" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="74" t="s">
+      <c r="D66" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="74" t="s">
+      <c r="E66" s="66" t="s">
         <v>15</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="G66" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="70"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="90">
-        <v>44000.0</v>
-      </c>
-      <c r="B67" s="74" t="s">
+      <c r="G66" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="62"/>
+    </row>
+    <row r="67" spans="1:12" ht="13">
+      <c r="A67" s="82">
+        <v>44000</v>
+      </c>
+      <c r="B67" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="89" t="s">
+      <c r="C67" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D67" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="74" t="s">
+      <c r="E67" s="66" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="G67" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="70"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="73">
-        <v>44005.0</v>
-      </c>
-      <c r="B68" s="74" t="s">
+      <c r="G67" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="62"/>
+    </row>
+    <row r="68" spans="1:12" ht="12.5">
+      <c r="A68" s="65">
+        <v>44005</v>
+      </c>
+      <c r="B68" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="D68" s="92" t="s">
+      <c r="D68" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="E68" s="74" t="s">
+      <c r="E68" s="66" t="s">
         <v>250</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G68" s="79"/>
-      <c r="H68" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="70"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="73">
-        <v>44005.0</v>
-      </c>
-      <c r="B69" s="74" t="s">
+      <c r="G68" s="71"/>
+      <c r="H68" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="62"/>
+    </row>
+    <row r="69" spans="1:12" ht="12.5">
+      <c r="A69" s="65">
+        <v>44005</v>
+      </c>
+      <c r="B69" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="C69" s="93" t="s">
+      <c r="C69" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="D69" s="92" t="s">
+      <c r="D69" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="E69" s="74" t="s">
+      <c r="E69" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="77" t="s">
+      <c r="F69" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="G69" s="79"/>
-      <c r="H69" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="70"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="81">
-        <v>44006.0</v>
-      </c>
-      <c r="B70" s="94" t="s">
+      <c r="G69" s="71"/>
+      <c r="H69" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="71"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="62"/>
+    </row>
+    <row r="70" spans="1:12" ht="13">
+      <c r="A70" s="73">
+        <v>44006</v>
+      </c>
+      <c r="B70" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="C70" s="95" t="s">
+      <c r="C70" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="D70" s="96" t="s">
+      <c r="D70" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="E70" s="94" t="s">
+      <c r="E70" s="86" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="G70" s="79"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="70"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="73">
-        <v>44011.0</v>
-      </c>
-      <c r="B71" s="74" t="s">
+      <c r="G70" s="71"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="62"/>
+    </row>
+    <row r="71" spans="1:12" ht="13">
+      <c r="A71" s="65">
+        <v>44011</v>
+      </c>
+      <c r="B71" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="D71" s="66" t="s">
+      <c r="D71" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="E71" s="74" t="s">
+      <c r="E71" s="66" t="s">
         <v>234</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="79"/>
-      <c r="H71" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="78"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="70"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="73">
-        <v>44012.0</v>
-      </c>
-      <c r="B72" s="74" t="s">
+      <c r="G71" s="71"/>
+      <c r="H71" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="70"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="71"/>
+      <c r="L71" s="62"/>
+    </row>
+    <row r="72" spans="1:12" ht="13">
+      <c r="A72" s="65">
+        <v>44012</v>
+      </c>
+      <c r="B72" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="95" t="s">
+      <c r="C72" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="D72" s="66" t="s">
+      <c r="D72" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="74" t="s">
+      <c r="E72" s="66" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="G72" s="79"/>
-      <c r="H72" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="70"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="73">
-        <v>44014.0</v>
-      </c>
-      <c r="B73" s="74" t="s">
+      <c r="G72" s="71"/>
+      <c r="H72" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="62"/>
+    </row>
+    <row r="73" spans="1:12" ht="12.5">
+      <c r="A73" s="65">
+        <v>44014</v>
+      </c>
+      <c r="B73" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="89" t="s">
+      <c r="C73" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="D73" s="66" t="s">
+      <c r="D73" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="66" t="s">
         <v>20</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="G73" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="70"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="73">
-        <v>44017.0</v>
-      </c>
-      <c r="B74" s="74" t="s">
+      <c r="G73" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
+      <c r="L73" s="62"/>
+    </row>
+    <row r="74" spans="1:12" ht="12.5">
+      <c r="A74" s="65">
+        <v>44017</v>
+      </c>
+      <c r="B74" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="C74" s="97" t="s">
+      <c r="C74" s="104" t="s">
         <v>267</v>
       </c>
-      <c r="D74" s="66" t="s">
+      <c r="D74" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="E74" s="74" t="s">
+      <c r="E74" s="66" t="s">
         <v>269</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="G74" s="79"/>
-      <c r="H74" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="70"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="73">
-        <v>44018.0</v>
-      </c>
-      <c r="B75" s="74" t="s">
+      <c r="G74" s="71"/>
+      <c r="H74" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="62"/>
+    </row>
+    <row r="75" spans="1:12" ht="12.5">
+      <c r="A75" s="65">
+        <v>44018</v>
+      </c>
+      <c r="B75" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="C75" s="97" t="s">
+      <c r="C75" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="D75" s="74" t="s">
+      <c r="D75" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="E75" s="74" t="s">
+      <c r="E75" s="66" t="s">
         <v>204</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="G75" s="79"/>
-      <c r="H75" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="70"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="73">
-        <v>44020.0</v>
-      </c>
-      <c r="B76" s="74" t="s">
+      <c r="G75" s="71"/>
+      <c r="H75" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="62"/>
+    </row>
+    <row r="76" spans="1:12" ht="12.5">
+      <c r="A76" s="65">
+        <v>44020</v>
+      </c>
+      <c r="B76" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="D76" s="74" t="s">
+      <c r="D76" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="E76" s="74" t="s">
+      <c r="E76" s="66" t="s">
         <v>238</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="G76" s="79"/>
-      <c r="H76" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="70"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="81">
-        <v>44024.0</v>
-      </c>
-      <c r="B77" s="74" t="s">
+      <c r="G76" s="71"/>
+      <c r="H76" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="62"/>
+    </row>
+    <row r="77" spans="1:12" ht="12.5">
+      <c r="A77" s="73">
+        <v>44024</v>
+      </c>
+      <c r="B77" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="97" t="s">
+      <c r="C77" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="D77" s="94" t="s">
+      <c r="D77" s="86" t="s">
         <v>279</v>
       </c>
-      <c r="E77" s="94" t="s">
+      <c r="E77" s="86" t="s">
         <v>204</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="G77" s="79"/>
-      <c r="H77" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="79"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="70"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="81">
-        <v>44026.0</v>
-      </c>
-      <c r="B78" s="74" t="s">
+      <c r="G77" s="71"/>
+      <c r="H77" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="71"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="62"/>
+    </row>
+    <row r="78" spans="1:12" ht="12.5">
+      <c r="A78" s="73">
+        <v>44026</v>
+      </c>
+      <c r="B78" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C78" s="94" t="s">
+      <c r="C78" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="D78" s="94" t="s">
+      <c r="D78" s="86" t="s">
         <v>282</v>
       </c>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="86" t="s">
         <v>283</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G78" s="79"/>
-      <c r="H78" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="79"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="70"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="81">
-        <v>44030.0</v>
-      </c>
-      <c r="B79" s="74" t="s">
+      <c r="G78" s="71"/>
+      <c r="H78" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="62"/>
+    </row>
+    <row r="79" spans="1:12" ht="12.5">
+      <c r="A79" s="73">
+        <v>44030</v>
+      </c>
+      <c r="B79" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="97" t="s">
+      <c r="C79" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="94" t="s">
+      <c r="D79" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="E79" s="94" t="s">
+      <c r="E79" s="86" t="s">
         <v>288</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="G79" s="79"/>
-      <c r="H79" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="70"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="99"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
-      <c r="I80" s="79"/>
-      <c r="J80" s="79"/>
-      <c r="K80" s="79"/>
-      <c r="L80" s="70"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="99"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="99"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="79"/>
-      <c r="L81" s="70"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="99"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="99"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="99"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="79"/>
-      <c r="K82" s="79"/>
-      <c r="L82" s="70"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="99"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99"/>
-      <c r="G83" s="99"/>
-      <c r="H83" s="99"/>
-      <c r="I83" s="99"/>
-      <c r="J83" s="99"/>
-      <c r="K83" s="99"/>
-    </row>
-    <row r="85">
-      <c r="C85" s="100"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="102"/>
-    </row>
-    <row r="89">
-      <c r="C89" s="103"/>
-    </row>
-    <row r="90">
-      <c r="C90" s="104"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="62"/>
+    </row>
+    <row r="80" spans="1:12" ht="12.5">
+      <c r="A80" s="90"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="71"/>
+      <c r="L80" s="62"/>
+    </row>
+    <row r="81" spans="1:12" ht="12.5">
+      <c r="A81" s="90"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="71"/>
+      <c r="L81" s="62"/>
+    </row>
+    <row r="82" spans="1:12" ht="12.5">
+      <c r="A82" s="90"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="62"/>
+    </row>
+    <row r="83" spans="1:12" ht="12.5">
+      <c r="A83" s="90"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="90"/>
+    </row>
+    <row r="85" spans="1:12" ht="12.5">
+      <c r="C85" s="93"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="95"/>
+    </row>
+    <row r="89" spans="1:12" ht="13">
+      <c r="C89" s="91"/>
+    </row>
+    <row r="90" spans="1:12" ht="23">
+      <c r="C90" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C85:G85"/>
   </mergeCells>
+  <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="F7"/>
-    <hyperlink r:id="rId7" ref="F8"/>
-    <hyperlink r:id="rId8" ref="F9"/>
-    <hyperlink r:id="rId9" ref="F10"/>
-    <hyperlink r:id="rId10" ref="F11"/>
-    <hyperlink r:id="rId11" ref="F12"/>
-    <hyperlink r:id="rId12" ref="F13"/>
-    <hyperlink r:id="rId13" ref="F14"/>
-    <hyperlink r:id="rId14" ref="F15"/>
-    <hyperlink r:id="rId15" ref="F16"/>
-    <hyperlink r:id="rId16" ref="F17"/>
-    <hyperlink r:id="rId17" ref="F18"/>
-    <hyperlink r:id="rId18" ref="F19"/>
-    <hyperlink r:id="rId19" ref="F20"/>
-    <hyperlink r:id="rId20" ref="F21"/>
-    <hyperlink r:id="rId21" ref="F22"/>
-    <hyperlink r:id="rId22" ref="F23"/>
-    <hyperlink r:id="rId23" ref="F24"/>
-    <hyperlink r:id="rId24" ref="F25"/>
-    <hyperlink r:id="rId25" ref="F26"/>
-    <hyperlink r:id="rId26" ref="F27"/>
-    <hyperlink r:id="rId27" ref="F28"/>
-    <hyperlink r:id="rId28" ref="F29"/>
-    <hyperlink r:id="rId29" ref="F30"/>
-    <hyperlink r:id="rId30" ref="F31"/>
-    <hyperlink r:id="rId31" ref="F32"/>
-    <hyperlink r:id="rId32" ref="F33"/>
-    <hyperlink r:id="rId33" ref="F34"/>
-    <hyperlink r:id="rId34" ref="F35"/>
-    <hyperlink r:id="rId35" ref="F36"/>
-    <hyperlink r:id="rId36" ref="F37"/>
-    <hyperlink r:id="rId37" ref="F38"/>
-    <hyperlink r:id="rId38" ref="F40"/>
-    <hyperlink r:id="rId39" ref="F42"/>
-    <hyperlink r:id="rId40" ref="F43"/>
-    <hyperlink r:id="rId41" ref="F44"/>
-    <hyperlink r:id="rId42" ref="F45"/>
-    <hyperlink r:id="rId43" ref="F46"/>
-    <hyperlink r:id="rId44" ref="F47"/>
-    <hyperlink r:id="rId45" ref="F48"/>
-    <hyperlink r:id="rId46" ref="F49"/>
-    <hyperlink r:id="rId47" ref="F50"/>
-    <hyperlink r:id="rId48" ref="F51"/>
-    <hyperlink r:id="rId49" ref="F52"/>
-    <hyperlink r:id="rId50" ref="F53"/>
-    <hyperlink r:id="rId51" ref="F54"/>
-    <hyperlink r:id="rId52" ref="F55"/>
-    <hyperlink r:id="rId53" ref="F57"/>
-    <hyperlink r:id="rId54" ref="F58"/>
-    <hyperlink r:id="rId55" ref="F59"/>
-    <hyperlink r:id="rId56" ref="F60"/>
-    <hyperlink r:id="rId57" ref="F61"/>
-    <hyperlink r:id="rId58" ref="F63"/>
-    <hyperlink r:id="rId59" ref="F64"/>
-    <hyperlink r:id="rId60" ref="F65"/>
-    <hyperlink r:id="rId61" ref="F66"/>
-    <hyperlink r:id="rId62" ref="F67"/>
-    <hyperlink r:id="rId63" ref="F68"/>
-    <hyperlink r:id="rId64" ref="F69"/>
-    <hyperlink r:id="rId65" ref="F70"/>
-    <hyperlink r:id="rId66" ref="F71"/>
-    <hyperlink r:id="rId67" ref="F72"/>
-    <hyperlink r:id="rId68" ref="F73"/>
-    <hyperlink r:id="rId69" ref="F74"/>
-    <hyperlink r:id="rId70" ref="F75"/>
-    <hyperlink r:id="rId71" ref="F76"/>
-    <hyperlink r:id="rId72" ref="F77"/>
-    <hyperlink r:id="rId73" ref="F78"/>
-    <hyperlink r:id="rId74" ref="F79"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F63" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F64" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F65" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F66" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F67" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F68" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F69" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F70" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F71" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F72" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F73" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F74" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F75" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F76" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F77" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F78" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F79" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
   </hyperlinks>
-  <drawing r:id="rId75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
--- a/data/news/교육.xlsx
+++ b/data/news/교육.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csp47\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960E2732-8DD2-4253-9EB0-49A6A2B5E53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765FD6BC-5595-4122-B1B0-5162DB16F4C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,13 +1035,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1163,19 +1156,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1208,7 +1201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1231,53 +1224,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1285,32 +1240,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,118 +1266,122 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1650,8 +1602,8 @@
   </sheetPr>
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1667,34 +1619,34 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2"/>
@@ -1716,26 +1668,26 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>43857</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="2"/>
@@ -1761,26 +1713,26 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>43858</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="2"/>
@@ -1806,26 +1758,26 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>43859</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="2"/>
@@ -1851,26 +1803,26 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>43860</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="2"/>
@@ -1896,26 +1848,26 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>43860</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="2"/>
@@ -1941,26 +1893,26 @@
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>43861</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="2"/>
@@ -1986,26 +1938,26 @@
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>43861</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="2"/>
@@ -2031,28 +1983,28 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>43866</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="2"/>
@@ -2078,26 +2030,26 @@
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>43866</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="2"/>
@@ -2123,26 +2075,26 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>43871</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2"/>
@@ -2168,26 +2120,26 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>43874</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2211,26 +2163,26 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>43880</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="2"/>
@@ -2256,30 +2208,30 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>43881</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2299,32 +2251,32 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>43882</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2344,32 +2296,32 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A16" s="20">
+      <c r="A16" s="15">
         <v>43884</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="24"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2389,32 +2341,32 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>43885</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2434,32 +2386,32 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>43891</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="G18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2479,32 +2431,32 @@
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>43891</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="11" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2524,32 +2476,32 @@
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>43892</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2569,32 +2521,32 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:29" ht="12.5">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>43893</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2614,7 +2566,7 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:29" ht="12.5">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>43895</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2623,27 +2575,27 @@
       <c r="C22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2663,32 +2615,32 @@
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:29" ht="12.5">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>43901</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2708,36 +2660,36 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:29" ht="12.5">
-      <c r="A24" s="18">
+      <c r="A24" s="14">
         <v>43901</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="J24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2757,30 +2709,30 @@
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:29" ht="12.5">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>43906</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="11" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2802,30 +2754,30 @@
       <c r="AC25" s="2"/>
     </row>
     <row r="26" spans="1:29" ht="12.5">
-      <c r="A26" s="18">
+      <c r="A26" s="14">
         <v>43907</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="2"/>
@@ -2849,26 +2801,26 @@
       <c r="AC26" s="2"/>
     </row>
     <row r="27" spans="1:29" ht="12.5">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>43908</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="23" t="s">
         <v>107</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="2"/>
@@ -2894,26 +2846,26 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28" spans="1:29" ht="12.5">
-      <c r="A28" s="33">
+      <c r="A28" s="24">
         <v>43921</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="10" t="s">
         <v>112</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="2"/>
@@ -2939,26 +2891,26 @@
       <c r="AC28" s="2"/>
     </row>
     <row r="29" spans="1:29" ht="12.5">
-      <c r="A29" s="35">
+      <c r="A29" s="26">
         <v>43922</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="28" t="s">
         <v>115</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="2"/>
@@ -2984,28 +2936,28 @@
       <c r="AC29" s="2"/>
     </row>
     <row r="30" spans="1:29" ht="12.5">
-      <c r="A30" s="33">
+      <c r="A30" s="24">
         <v>43922</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3029,29 +2981,29 @@
       <c r="AC30" s="2"/>
     </row>
     <row r="31" spans="1:29" ht="12.5">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>43928</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="G31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -3074,29 +3026,29 @@
       <c r="AC31" s="2"/>
     </row>
     <row r="32" spans="1:29" ht="12.5">
-      <c r="A32" s="18">
+      <c r="A32" s="14">
         <v>43930</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="29" t="s">
         <v>126</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="H32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="2"/>
@@ -3121,29 +3073,29 @@
       <c r="AC32" s="2"/>
     </row>
     <row r="33" spans="1:29" ht="12.5">
-      <c r="A33" s="18">
+      <c r="A33" s="14">
         <v>43934</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="20" t="s">
         <v>131</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="5"/>
+      <c r="H33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -3166,29 +3118,29 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" ht="12.5">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>43934</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -3211,29 +3163,29 @@
       <c r="AC34" s="2"/>
     </row>
     <row r="35" spans="1:29" ht="12.5">
-      <c r="A35" s="18">
+      <c r="A35" s="14">
         <v>43937</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="30" t="s">
         <v>136</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="28" t="s">
         <v>138</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="H35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="2"/>
@@ -3258,7 +3210,7 @@
       <c r="AC35" s="2"/>
     </row>
     <row r="36" spans="1:29" ht="12.5">
-      <c r="A36" s="18">
+      <c r="A36" s="14">
         <v>43939</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3270,17 +3222,17 @@
       <c r="D36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="20" t="s">
         <v>141</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="5"/>
+      <c r="H36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3303,28 +3255,28 @@
       <c r="AC36" s="2"/>
     </row>
     <row r="37" spans="1:29" ht="12.5">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>43941</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3346,28 +3298,28 @@
       <c r="AC37" s="2"/>
     </row>
     <row r="38" spans="1:29" ht="12.5">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>43950</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="5"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3389,32 +3341,32 @@
       <c r="AC38" s="2"/>
     </row>
     <row r="39" spans="1:29" ht="12.5">
-      <c r="A39" s="18">
+      <c r="A39" s="14">
         <v>43955</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="5" t="s">
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="2"/>
@@ -3438,30 +3390,30 @@
       <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="1:29" ht="12.5">
-      <c r="A40" s="18">
+      <c r="A40" s="14">
         <v>43958</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="20" t="s">
         <v>157</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K40" s="2"/>
@@ -3485,28 +3437,28 @@
       <c r="AC40" s="2"/>
     </row>
     <row r="41" spans="1:29" ht="12.5">
-      <c r="A41" s="18">
+      <c r="A41" s="14">
         <v>43962</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G41" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="47" t="s">
+      <c r="G41" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="2"/>
@@ -3532,28 +3484,28 @@
       <c r="AC41" s="2"/>
     </row>
     <row r="42" spans="1:29" ht="12.5">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>43965</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H42" s="11"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -3577,30 +3529,30 @@
       <c r="AC42" s="2"/>
     </row>
     <row r="43" spans="1:29" ht="13">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>43971</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="5"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3621,121 +3573,121 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" s="101" customFormat="1" ht="13">
-      <c r="A44" s="96">
+    <row r="44" spans="1:29" s="76" customFormat="1" ht="13">
+      <c r="A44" s="72">
         <v>43971</v>
       </c>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="102" t="s">
+      <c r="C44" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="98" t="s">
+      <c r="D44" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="97" t="s">
+      <c r="E44" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="99" t="s">
+      <c r="F44" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="G44" s="100" t="s">
+      <c r="G44" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="100"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-    </row>
-    <row r="45" spans="1:29" s="101" customFormat="1" ht="13">
-      <c r="A45" s="96">
+      <c r="H44" s="75"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+    </row>
+    <row r="45" spans="1:29" s="76" customFormat="1" ht="13">
+      <c r="A45" s="72">
         <v>43971</v>
       </c>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="98" t="s">
+      <c r="D45" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="97" t="s">
+      <c r="E45" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="99" t="s">
+      <c r="F45" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="100" t="s">
+      <c r="G45" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="H45" s="100"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="97"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="97"/>
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="97"/>
-      <c r="AC45" s="97"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
     </row>
     <row r="46" spans="1:29" ht="12.5">
-      <c r="A46" s="18">
+      <c r="A46" s="14">
         <v>43971</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="30" t="s">
         <v>175</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5" t="s">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="5"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3757,26 +3709,26 @@
       <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="1:29" ht="12.5">
-      <c r="A47" s="18">
+      <c r="A47" s="14">
         <v>43971</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="35" t="s">
         <v>178</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54" t="s">
+      <c r="G47" s="37"/>
+      <c r="H47" s="38" t="s">
         <v>17</v>
       </c>
       <c r="I47" s="2"/>
@@ -3802,26 +3754,26 @@
       <c r="AC47" s="2"/>
     </row>
     <row r="48" spans="1:29" ht="12.5">
-      <c r="A48" s="18">
+      <c r="A48" s="14">
         <v>43971</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="36" t="s">
         <v>183</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="47" t="s">
+      <c r="H48" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="2"/>
@@ -3847,32 +3799,32 @@
       <c r="AC48" s="2"/>
     </row>
     <row r="49" spans="1:29" ht="12.5">
-      <c r="A49" s="18">
+      <c r="A49" s="14">
         <v>43973</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="95" t="s">
         <v>184</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="5"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3892,28 +3844,28 @@
       <c r="AC49" s="2"/>
     </row>
     <row r="50" spans="1:29" ht="12.5">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>43975</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="G50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="2"/>
@@ -3939,896 +3891,893 @@
       <c r="AC50" s="2"/>
     </row>
     <row r="51" spans="1:29" ht="12.5">
-      <c r="A51" s="57">
+      <c r="A51" s="40">
         <v>43977</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="58" t="s">
+      <c r="E51" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="12.5">
-      <c r="A52" s="57">
+      <c r="A52" s="40">
         <v>43978</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="58" t="s">
+      <c r="E52" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="12.5">
-      <c r="A53" s="57">
+      <c r="A53" s="40">
         <v>43978</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="58" t="s">
+      <c r="E53" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
+      <c r="G53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
     </row>
     <row r="54" spans="1:29" ht="12.5">
-      <c r="A54" s="57">
+      <c r="A54" s="40">
         <v>43980</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="58" t="s">
+      <c r="E54" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
     </row>
     <row r="55" spans="1:29" ht="12.5">
-      <c r="A55" s="65">
+      <c r="A55" s="45">
         <v>43980</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G55" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="71"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
+      <c r="G55" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="50"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
     </row>
     <row r="56" spans="1:29" ht="12.5">
-      <c r="A56" s="65">
+      <c r="A56" s="45">
         <v>43980</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="71"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
+      <c r="G56" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="50"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
     </row>
     <row r="57" spans="1:29" ht="12.5">
-      <c r="A57" s="57">
+      <c r="A57" s="40">
         <v>43982</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="66" t="s">
+      <c r="E57" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="69" t="s">
+      <c r="F57" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="G57" s="62"/>
-      <c r="H57" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="72"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="51"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" spans="1:29" ht="12.5">
-      <c r="A58" s="57">
+      <c r="A58" s="40">
         <v>43983</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="72"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="51"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
     </row>
     <row r="59" spans="1:29" ht="13">
-      <c r="A59" s="65">
+      <c r="A59" s="45">
         <v>43984</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="D59" s="66" t="s">
+      <c r="D59" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="62"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="1:29" ht="12.5">
-      <c r="A60" s="73">
+      <c r="A60" s="52">
         <v>43984</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="D60" s="75" t="s">
+      <c r="D60" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="14" t="s">
+      <c r="E60" s="82"/>
+      <c r="F60" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G60" s="71"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="62"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="43"/>
     </row>
     <row r="61" spans="1:29" ht="12.5">
-      <c r="A61" s="65">
+      <c r="A61" s="45">
         <v>43985</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D61" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E61" s="66" t="s">
+      <c r="E61" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G61" s="71"/>
-      <c r="H61" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="62"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="43"/>
     </row>
     <row r="62" spans="1:29" ht="13">
-      <c r="A62" s="73">
+      <c r="A62" s="52">
         <v>43985</v>
       </c>
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="77" t="s">
+      <c r="C62" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="D62" s="78" t="s">
+      <c r="D62" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="10" t="s">
+      <c r="E62" s="82"/>
+      <c r="F62" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="62"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="43"/>
     </row>
     <row r="63" spans="1:29" ht="13">
-      <c r="A63" s="65">
+      <c r="A63" s="45">
         <v>43990</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="C63" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="D63" s="79" t="s">
+      <c r="D63" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="E63" s="66" t="s">
+      <c r="E63" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G63" s="71"/>
-      <c r="H63" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="62"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="43"/>
     </row>
     <row r="64" spans="1:29" ht="13">
-      <c r="A64" s="65">
+      <c r="A64" s="45">
         <v>43991</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="103" t="s">
+      <c r="C64" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G64" s="71"/>
-      <c r="H64" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="62"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="43"/>
     </row>
     <row r="65" spans="1:12" ht="13">
-      <c r="A65" s="80">
+      <c r="A65" s="59">
         <v>43993</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="81" t="s">
+      <c r="C65" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="E65" s="66" t="s">
+      <c r="E65" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G65" s="71"/>
-      <c r="H65" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="62"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="43"/>
     </row>
     <row r="66" spans="1:12" ht="13">
-      <c r="A66" s="82">
+      <c r="A66" s="61">
         <v>43998</v>
       </c>
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C66" s="83" t="s">
+      <c r="C66" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="66" t="s">
+      <c r="D66" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="E66" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G66" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="62"/>
+      <c r="G66" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="43"/>
     </row>
     <row r="67" spans="1:12" ht="13">
-      <c r="A67" s="82">
+      <c r="A67" s="61">
         <v>44000</v>
       </c>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="81" t="s">
+      <c r="C67" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="D67" s="66" t="s">
+      <c r="D67" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="66" t="s">
+      <c r="E67" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G67" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="62"/>
+      <c r="G67" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="43"/>
     </row>
     <row r="68" spans="1:12" ht="12.5">
-      <c r="A68" s="65">
+      <c r="A68" s="45">
         <v>44005</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="D68" s="84" t="s">
+      <c r="D68" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G68" s="71"/>
-      <c r="H68" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="62"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="43"/>
     </row>
     <row r="69" spans="1:12" ht="12.5">
-      <c r="A69" s="65">
+      <c r="A69" s="45">
         <v>44005</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D69" s="84" t="s">
+      <c r="D69" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="E69" s="66" t="s">
+      <c r="E69" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="69" t="s">
+      <c r="F69" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="G69" s="71"/>
-      <c r="H69" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="62"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="43"/>
     </row>
     <row r="70" spans="1:12" ht="13">
-      <c r="A70" s="73">
+      <c r="A70" s="52">
         <v>44006</v>
       </c>
-      <c r="B70" s="86" t="s">
+      <c r="B70" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="C70" s="87" t="s">
+      <c r="C70" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="D70" s="88" t="s">
+      <c r="D70" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="E70" s="86" t="s">
+      <c r="E70" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G70" s="71"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="62"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="43"/>
     </row>
     <row r="71" spans="1:12" ht="13">
-      <c r="A71" s="65">
+      <c r="A71" s="45">
         <v>44011</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="103" t="s">
+      <c r="C71" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="E71" s="66" t="s">
+      <c r="E71" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="71"/>
-      <c r="H71" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="70"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="62"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="49"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="43"/>
     </row>
     <row r="72" spans="1:12" ht="13">
-      <c r="A72" s="65">
+      <c r="A72" s="45">
         <v>44012</v>
       </c>
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D72" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="66" t="s">
+      <c r="E72" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G72" s="71"/>
-      <c r="H72" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="62"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="43"/>
     </row>
     <row r="73" spans="1:12" ht="12.5">
-      <c r="A73" s="65">
+      <c r="A73" s="45">
         <v>44014</v>
       </c>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="81" t="s">
+      <c r="C73" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="D73" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="66" t="s">
+      <c r="E73" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G73" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="62"/>
+      <c r="G73" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="43"/>
     </row>
     <row r="74" spans="1:12" ht="12.5">
-      <c r="A74" s="65">
+      <c r="A74" s="45">
         <v>44017</v>
       </c>
-      <c r="B74" s="66" t="s">
+      <c r="B74" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="C74" s="104" t="s">
+      <c r="C74" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D74" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="E74" s="66" t="s">
+      <c r="E74" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G74" s="71"/>
-      <c r="H74" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="62"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="43"/>
     </row>
     <row r="75" spans="1:12" ht="12.5">
-      <c r="A75" s="65">
+      <c r="A75" s="45">
         <v>44018</v>
       </c>
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="C75" s="104" t="s">
+      <c r="C75" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="D75" s="66" t="s">
+      <c r="D75" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E75" s="66" t="s">
+      <c r="E75" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G75" s="71"/>
-      <c r="H75" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="62"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="43"/>
     </row>
     <row r="76" spans="1:12" ht="12.5">
-      <c r="A76" s="65">
+      <c r="A76" s="45">
         <v>44020</v>
       </c>
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C76" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="D76" s="66" t="s">
+      <c r="D76" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="E76" s="66" t="s">
+      <c r="E76" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F76" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="62"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="43"/>
     </row>
     <row r="77" spans="1:12" ht="12.5">
-      <c r="A77" s="73">
+      <c r="A77" s="52">
         <v>44024</v>
       </c>
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="104" t="s">
+      <c r="C77" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="D77" s="86" t="s">
+      <c r="D77" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="E77" s="86" t="s">
+      <c r="E77" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G77" s="71"/>
-      <c r="H77" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="62"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="43"/>
     </row>
     <row r="78" spans="1:12" ht="12.5">
-      <c r="A78" s="73">
+      <c r="A78" s="52">
         <v>44026</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="C78" s="86" t="s">
+      <c r="C78" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="D78" s="86" t="s">
+      <c r="D78" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="E78" s="86" t="s">
+      <c r="E78" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G78" s="71"/>
-      <c r="H78" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="71"/>
-      <c r="K78" s="71"/>
-      <c r="L78" s="62"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="43"/>
     </row>
     <row r="79" spans="1:12" ht="12.5">
-      <c r="A79" s="73">
+      <c r="A79" s="52">
         <v>44030</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="104" t="s">
+      <c r="C79" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="86" t="s">
+      <c r="D79" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="E79" s="86" t="s">
+      <c r="E79" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="G79" s="71"/>
-      <c r="H79" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="62"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="43"/>
     </row>
     <row r="80" spans="1:12" ht="12.5">
-      <c r="A80" s="90"/>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="62"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="43"/>
     </row>
     <row r="81" spans="1:12" ht="12.5">
-      <c r="A81" s="90"/>
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="62"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="43"/>
     </row>
     <row r="82" spans="1:12" ht="12.5">
-      <c r="A82" s="90"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="90"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="62"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="43"/>
     </row>
     <row r="83" spans="1:12" ht="12.5">
-      <c r="A83" s="90"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
-      <c r="K83" s="90"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
     </row>
     <row r="85" spans="1:12" ht="12.5">
-      <c r="C85" s="93"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="95"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
+      <c r="G85" s="102"/>
     </row>
     <row r="89" spans="1:12" ht="13">
-      <c r="C89" s="91"/>
+      <c r="C89" s="70"/>
     </row>
     <row r="90" spans="1:12" ht="23">
-      <c r="C90" s="92"/>
+      <c r="C90" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C85:G85"/>
-  </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
